--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1959264.343557008</v>
+        <v>1956720.534049924</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9972464.576861383</v>
+        <v>9972464.576861385</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>180.9624424799364</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>131.6242692921696</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842815</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>48.20279434449713</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>60.9676003338656</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.856330159867</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>109.1526686504787</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465008</v>
+        <v>65.76608425464985</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348403</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>159.4775158380105</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.8244010340326</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908874</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.839096916145</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115225</v>
+        <v>20.24979976115213</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901737</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099117</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>68.97450488259372</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640951</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247907392</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>-8.975685278037207e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366755415</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2935157990527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>136.5667167289874</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760515</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,13 +2053,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>80.11763046889868</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184768</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797012</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187849</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531671</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.92158678358339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460194</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272922</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595037</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>320.3587892151038</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822819</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>586.7364457822819</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>773.2654142440368</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>598.8123849629098</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699345</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302312</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>773.2654142440368</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>773.2654142440368</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>773.2654142440368</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>773.2654142440368</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>773.2654142440368</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>773.2654142440368</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1006.165828748957</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>739.7881721817791</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>485.1036839758923</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>485.1036839758923</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>257.114133077875</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>247.7358133554696</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519934</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>474.2580350095594</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.3523312591899</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7933752329598</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.0007960894296</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.269430205405</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>880.306913264993</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0412146582426</v>
+        <v>926.0816186986465</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599983</v>
+        <v>540.2933661004023</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107948</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
         <v>117.641643342866</v>
@@ -4799,55 +4799,55 @@
         <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685585</v>
+        <v>51.211255206856</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467189</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607441</v>
+        <v>442.175743760745</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045958</v>
+        <v>795.1862829045976</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995234</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209594</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940603</v>
+        <v>2053.905718940608</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550206</v>
+        <v>2359.356530550212</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661173</v>
+        <v>2540.56462266118</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.5627603428</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342792</v>
+        <v>2435.830015762153</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342792</v>
+        <v>2227.077931858426</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342792</v>
+        <v>2227.077931858426</v>
       </c>
       <c r="V8" t="n">
-        <v>2399.474360506418</v>
+        <v>2227.077931858426</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.474360506418</v>
+        <v>1874.309276588312</v>
       </c>
       <c r="X8" t="n">
-        <v>2026.008602245338</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.869270269526</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.509720801095</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.056691519968</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587167</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487295</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993893</v>
+        <v>71.66559839993897</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685585</v>
+        <v>51.211255206856</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>113.4887579637197</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572718</v>
+        <v>559.9063389572729</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907539</v>
+        <v>854.4423223907556</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865056</v>
+        <v>1217.508790865059</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337626</v>
+        <v>1851.248074049902</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325016</v>
+        <v>2183.134884037293</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789047</v>
+        <v>2430.170242466918</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342792</v>
+        <v>2545.387641020664</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.5627603428</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251708</v>
+        <v>2424.826280251716</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685357</v>
+        <v>2230.816477685365</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751594</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519851</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.33685679165</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586117</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821163</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>902.7254605408363</v>
+        <v>367.0373856326732</v>
       </c>
       <c r="C10" t="n">
-        <v>733.7892776129294</v>
+        <v>198.1012027047664</v>
       </c>
       <c r="D10" t="n">
-        <v>583.6726382005936</v>
+        <v>198.1012027047664</v>
       </c>
       <c r="E10" t="n">
-        <v>435.7595446182005</v>
+        <v>198.1012027047664</v>
       </c>
       <c r="F10" t="n">
-        <v>288.8695971202901</v>
+        <v>51.211255206856</v>
       </c>
       <c r="G10" t="n">
-        <v>120.8824722599808</v>
+        <v>51.211255206856</v>
       </c>
       <c r="H10" t="n">
-        <v>120.8824722599808</v>
+        <v>51.211255206856</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685585</v>
+        <v>51.211255206856</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380189</v>
+        <v>76.63468308380222</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676575</v>
+        <v>248.2500215676582</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368932</v>
+        <v>523.3850043368942</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904052</v>
+        <v>823.8653899904066</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101616</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931096</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616505</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477369</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412623</v>
+        <v>1533.156055412626</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412623</v>
+        <v>1336.51580263446</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.156055412623</v>
+        <v>1113.534501108865</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.156055412623</v>
+        <v>1092.787508705761</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.156055412623</v>
+        <v>838.1030204998735</v>
       </c>
       <c r="W10" t="n">
-        <v>1533.156055412623</v>
+        <v>548.685850462913</v>
       </c>
       <c r="X10" t="n">
-        <v>1305.166504514606</v>
+        <v>548.685850462913</v>
       </c>
       <c r="Y10" t="n">
-        <v>1084.373925371076</v>
+        <v>548.685850462913</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703205</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703205</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579847</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755916</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600109</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>231.7628415621006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>762.5477693179097</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>593.6115863900028</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>443.494946977667</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952739</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2183.181349771631</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1894.106123115829</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614398</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>762.5477693179097</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703137</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703137</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579779</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,16 +6482,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,31 +7640,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,10 +7731,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.262887399594092</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167801</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.26288739959432</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538101</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475095002</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348486</v>
+        <v>36.31458639917733</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435537709</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181939</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>28.95742156328143</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462187</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.9682224253261</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>137.2878198583896</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472148</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194335</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761453</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260846</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>881351.4422712467</v>
+        <v>881351.4422712468</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.033114704</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147034</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147034</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147034</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="E2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
@@ -26338,19 +26338,19 @@
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580811</v>
+        <v>390680.007658083</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606911</v>
+        <v>507909.2320606896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101823</v>
+        <v>95270.2377910186</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.975695468</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555018</v>
+        <v>139261.6527555012</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26451,13 +26451,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
+        <v>10557.0882867813</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="P4" t="n">
         <v>10557.08828678127</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567915</v>
+        <v>92902.86757567929</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418739.210865323</v>
+        <v>-418739.2108653231</v>
       </c>
       <c r="C6" t="n">
-        <v>261348.7697258705</v>
+        <v>261348.7697258703</v>
       </c>
       <c r="D6" t="n">
-        <v>-48115.28908426341</v>
+        <v>-48115.28908426498</v>
       </c>
       <c r="E6" t="n">
-        <v>-54586.2303883748</v>
+        <v>-54620.96831380886</v>
       </c>
       <c r="F6" t="n">
-        <v>453323.0016723161</v>
+        <v>453288.2637468808</v>
       </c>
       <c r="G6" t="n">
-        <v>453323.0016723163</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="H6" t="n">
-        <v>453323.0016723161</v>
+        <v>453288.2637468806</v>
       </c>
       <c r="I6" t="n">
-        <v>453323.0016723161</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="J6" t="n">
-        <v>384323.8472532021</v>
+        <v>384289.1093277664</v>
       </c>
       <c r="K6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468806</v>
       </c>
       <c r="L6" t="n">
-        <v>358052.763881298</v>
+        <v>358018.0259558619</v>
       </c>
       <c r="M6" t="n">
-        <v>320605.0259768477</v>
+        <v>320570.2880514124</v>
       </c>
       <c r="N6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468804</v>
       </c>
       <c r="O6" t="n">
-        <v>453323.0016723161</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="P6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468805</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627846</v>
+        <v>933.7024595627861</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856981</v>
+        <v>640.1406900857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933062</v>
+        <v>319.6474457933077</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788891</v>
+        <v>434.2730407788879</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084192</v>
+        <v>376.4268100841939</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139503</v>
+        <v>532.5675980139483</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084192</v>
+        <v>376.4268100841934</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139503</v>
+        <v>532.5675980139483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084192</v>
+        <v>376.4268100841939</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139503</v>
+        <v>532.5675980139483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8717321657736</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11956169855995</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>63.21671829270721</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788762</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.0115515350687</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>225.2910301688119</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,7 +27673,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052649</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>58.0941524481491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>168.2747426321244</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444365</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164513565</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164521239</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>35.84174486050568</v>
+        <v>104.8162497430993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912305</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.539566541194046e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.975685278037207e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>5.115907697472721e-13</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.220922302743453e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.180140270755961e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.071406810014793e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,13 +28861,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.704309971359808e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885563</v>
+        <v>3.753577726885569</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546685</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157561</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972539</v>
+        <v>318.5802175972544</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763199</v>
+        <v>477.4691627763206</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135494</v>
+        <v>592.342717135495</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359952</v>
+        <v>659.0954050359962</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525089</v>
+        <v>669.7602577525099</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307905</v>
+        <v>632.4356192307914</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098303</v>
+        <v>539.7691690983039</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542143</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864759</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140487</v>
+        <v>85.53465245140499</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944159</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150845</v>
+        <v>0.3002862181508455</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436933</v>
+        <v>2.008341139436936</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035147</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026283</v>
+        <v>69.14683309026294</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079432</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502174</v>
+        <v>324.3030514502179</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571288</v>
+        <v>436.0654741571295</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617175</v>
+        <v>508.8678404617183</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152223</v>
+        <v>522.3360580152232</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519092</v>
+        <v>477.8354464519099</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947596</v>
+        <v>383.5050724947602</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.362984746371</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204793</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366406</v>
+        <v>37.30405581366412</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413395</v>
+        <v>8.095024154133963</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419038</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752565</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840009</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415889</v>
+        <v>50.63422518415896</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954063</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772525</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490132</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102313</v>
+        <v>263.9316641023134</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462359</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046263</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708738</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939807</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307428</v>
+        <v>75.70643221307439</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658787</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942764</v>
+        <v>7.194100917942776</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650349</v>
+        <v>0.09183958618650365</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>188.4731159523455</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965815</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,13 +32573,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,34 +32789,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822609</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578901</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,31 +33266,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462894</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550401</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,31 +33977,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330463</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663289</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951691</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>240.4469701760394</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043498</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>153.4895779655504</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,10 +35027,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705676</v>
+        <v>137.5343130705681</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313393</v>
+        <v>257.3793117313401</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655068</v>
+        <v>356.5763021655078</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087225</v>
+        <v>428.7491718087235</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155918</v>
+        <v>440.347194155919</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091038</v>
+        <v>402.3374078091047</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430335</v>
+        <v>308.5361733430344</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797642</v>
+        <v>183.0384768797648</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234335</v>
+        <v>20.20013907234375</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127619</v>
+        <v>62.90656844127651</v>
       </c>
       <c r="K9" t="n">
-        <v>450.926849488437</v>
+        <v>450.9268494884375</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772547</v>
+        <v>297.5110943772553</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396992</v>
+        <v>366.7338065397</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931889</v>
+        <v>640.1406900857</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074648</v>
+        <v>335.2392020074655</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899296</v>
+        <v>249.53066508043</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603491</v>
+        <v>116.3812106603495</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335569267</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873337</v>
+        <v>25.68023017873355</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513696</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093293</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.515541064154</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254645</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186659</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357673</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422861</v>
+        <v>54.82702814228632</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>45.87687150790109</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745631</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010477</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790194</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.4658664358718</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629561</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717068</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317217</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529487</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>101.8925903961653</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
